--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3785.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3785.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.851268256333919</v>
+        <v>3.432446002960205</v>
       </c>
       <c r="B1">
-        <v>2.431643365599611</v>
+        <v>3.867506265640259</v>
       </c>
       <c r="C1">
-        <v>2.63395387029958</v>
+        <v>2.921120882034302</v>
       </c>
       <c r="D1">
-        <v>3.140208560711338</v>
+        <v>2.777636289596558</v>
       </c>
       <c r="E1">
-        <v>3.186693544441438</v>
+        <v>2.496066093444824</v>
       </c>
     </row>
   </sheetData>
